--- a/veritabanıtravel.xlsx
+++ b/veritabanıtravel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARIBILGI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Travel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62AF574-9BCA-4871-AD3C-D6BA5C880E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC178AB-B64D-47D2-9DC7-DAA65F63A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{ED8BAFC1-C09E-4DE7-9AED-432968972FC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Otel</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>RezerveOdaId</t>
+  </si>
+  <si>
+    <t>OtelAd</t>
+  </si>
+  <si>
+    <t>OtelAciklama</t>
+  </si>
+  <si>
+    <t>OzelOzelik</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,9 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +526,7 @@
   <dimension ref="A2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,27 +535,31 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -544,118 +567,130 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -665,7 +700,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -675,37 +710,37 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
